--- a/tests/Templates/1.xlsx
+++ b/tests/Templates/1.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\ClosedXML.Report\tests\Templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="90" windowWidth="27795" windowHeight="12585"/>
   </bookViews>
@@ -13,27 +18,66 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>WAKU</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>{{TestValue1}}</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>{{TestValue1}}</t>
+    <t>&amp;={{TestValue2+4}}*2</t>
   </si>
   <si>
-    <t>&amp;={{TestValue2+4}}*2</t>
+    <t>{{TestValue1}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -60,7 +104,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -68,14 +112,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -113,9 +160,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -147,9 +194,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -181,9 +229,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -356,26 +405,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>